--- a/Documentação/backlog.xlsx
+++ b/Documentação/backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\materias sptech\Projeto-Individual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Projeto-One-Piece\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C776BB7-CF85-44B5-86BE-B0E44A8A9E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B230476A-00C7-4C00-BF56-9BCB2B2D623F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{B9CEAFE3-8D8E-447E-9400-F3B44B4E6B34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{B9CEAFE3-8D8E-447E-9400-F3B44B4E6B34}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="88">
   <si>
     <t>BACKLOG</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>Funcional</t>
-  </si>
-  <si>
-    <t>tela contato do site</t>
-  </si>
-  <si>
-    <t>Usuário poderá entrar em contato comigo para reportar bug/mal funcionamento</t>
   </si>
   <si>
     <t>tela de login do site</t>
@@ -317,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +375,14 @@
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -534,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -599,6 +601,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4CADA4-2F7B-4A0F-A233-B5C02A78E0FE}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C18"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,10 +961,10 @@
     </row>
     <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -976,27 +979,27 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5">
         <v>3</v>
@@ -1014,25 +1017,27 @@
         <v>8</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="7">
         <v>8</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7">
+        <v>4</v>
+      </c>
       <c r="J3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -1050,25 +1055,27 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>6</v>
+      </c>
       <c r="J4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
@@ -1086,25 +1093,27 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7">
         <v>3</v>
@@ -1122,25 +1131,27 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>7</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="7">
         <v>3</v>
@@ -1152,67 +1163,71 @@
         <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="7">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I8" s="7">
+        <v>10</v>
+      </c>
       <c r="J8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="7">
         <v>3</v>
@@ -1230,25 +1245,27 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>10</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="7">
         <v>3</v>
@@ -1260,31 +1277,33 @@
         <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="7">
-        <v>21</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="7">
         <v>3</v>
@@ -1296,31 +1315,33 @@
         <v>26</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7">
+        <v>8</v>
+      </c>
       <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7">
         <v>3</v>
@@ -1338,25 +1359,30 @@
         <v>8</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>8</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="54" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" s="7">
         <v>3</v>
@@ -1374,70 +1400,71 @@
         <v>8</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>7</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" t="s">
+    </row>
+    <row r="15" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="54" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="7">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>33</v>
@@ -1452,22 +1479,24 @@
         <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>9</v>
+      </c>
       <c r="J15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -1482,28 +1511,30 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>9</v>
+      </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="7">
         <v>3</v>
@@ -1521,56 +1552,22 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>10</v>
+      </c>
       <c r="J17" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="7">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1585,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC158C8-30F2-498E-A732-67FED6EE49A8}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,10 +1620,10 @@
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1641,27 +1638,27 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5">
         <v>3</v>
@@ -1679,25 +1676,27 @@
         <v>8</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="7">
         <v>8</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7">
+        <v>4</v>
+      </c>
       <c r="J3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -1715,34 +1714,36 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>6</v>
+      </c>
       <c r="J4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>7</v>
@@ -1751,34 +1752,36 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>10</v>
+      </c>
       <c r="J5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>7</v>
@@ -1787,25 +1790,27 @@
         <v>8</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>9</v>
+      </c>
       <c r="J6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +1826,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,10 +1863,10 @@
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1876,36 +1881,36 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="7">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
@@ -1914,34 +1919,36 @@
         <v>8</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" s="7">
         <v>5</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7">
+        <v>8</v>
+      </c>
       <c r="J3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>7</v>
@@ -1950,100 +1957,106 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>10</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>8</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="7">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>7</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2059,7 +2072,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,10 +2109,10 @@
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -2114,72 +2127,74 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="7">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="H3" s="7">
         <v>8</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7">
+        <v>7</v>
+      </c>
       <c r="J3" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>7</v>
@@ -2188,34 +2203,36 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>9</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>7</v>
@@ -2224,34 +2241,36 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>9</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>7</v>
@@ -2260,25 +2279,27 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>7</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2291,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABB7957-56A6-42F0-BAAD-76925385109F}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,10 +2352,10 @@
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -2349,171 +2370,141 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="7">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="7">
-        <v>3</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="H5" s="7">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="7">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="7">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>65</v>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2526,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C194EB-3FD8-4CBB-B44E-77A128B28D9F}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,25 +2547,25 @@
     </row>
     <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2582,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="15">
         <v>1</v>
@@ -2594,10 +2585,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2605,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
@@ -2617,10 +2608,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2628,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="15">
         <v>1</v>
@@ -2640,10 +2631,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2651,7 +2642,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
@@ -2663,10 +2654,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2674,7 +2665,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="15">
         <v>1</v>
@@ -2686,10 +2677,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2697,7 +2688,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="15">
         <v>1</v>
@@ -2709,10 +2700,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2720,7 +2711,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="15">
         <v>1</v>
@@ -2732,11 +2723,14 @@
         <v>2</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>87</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentação/backlog.xlsx
+++ b/Documentação/backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Projeto-One-Piece\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B230476A-00C7-4C00-BF56-9BCB2B2D623F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2249A53-3CFC-40B3-8171-EF2C5EF21064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{B9CEAFE3-8D8E-447E-9400-F3B44B4E6B34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{B9CEAFE3-8D8E-447E-9400-F3B44B4E6B34}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="87">
   <si>
     <t>BACKLOG</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>Victor</t>
-  </si>
-  <si>
-    <t>Não iniciado</t>
   </si>
   <si>
     <t>SP3A</t>
@@ -345,12 +342,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="0"/>
@@ -384,8 +375,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,12 +411,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -559,9 +551,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,34 +563,37 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4CADA4-2F7B-4A0F-A233-B5C02A78E0FE}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,11 +1020,11 @@
       <c r="J3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -1066,11 +1058,11 @@
       <c r="J4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,11 +1096,11 @@
       <c r="J5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>55</v>
+      <c r="K5" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1142,11 +1134,11 @@
       <c r="J6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>55</v>
+      <c r="K6" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,11 +1172,11 @@
       <c r="J7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>55</v>
+      <c r="K7" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1218,11 +1210,11 @@
       <c r="J8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,11 +1248,11 @@
       <c r="J9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>55</v>
+      <c r="K9" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,11 +1286,11 @@
       <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>55</v>
+      <c r="K10" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -1332,11 +1324,11 @@
       <c r="J11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1370,11 +1362,11 @@
       <c r="J12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>55</v>
+      <c r="K12" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O12" t="s">
         <v>46</v>
@@ -1411,11 +1403,11 @@
       <c r="J13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>55</v>
+      <c r="K13" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,11 +1441,11 @@
       <c r="J14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>55</v>
+      <c r="K14" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1487,11 +1479,11 @@
       <c r="J15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,11 +1517,11 @@
       <c r="J16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>55</v>
+      <c r="K16" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,11 +1555,11 @@
       <c r="J17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>55</v>
+      <c r="K17" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1582,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC158C8-30F2-498E-A732-67FED6EE49A8}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,11 +1679,11 @@
       <c r="J3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>86</v>
+      <c r="K3" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -1725,11 +1717,11 @@
       <c r="J4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1740,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>20</v>
@@ -1763,11 +1755,11 @@
       <c r="J5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1801,16 +1793,16 @@
       <c r="J6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>86</v>
+      <c r="K6" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>61</v>
+      <c r="A7" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1826,7 +1818,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K3" sqref="K3:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,11 +1922,11 @@
       <c r="J3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -1968,11 +1960,11 @@
       <c r="J4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>55</v>
+      <c r="K4" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2006,11 +1998,11 @@
       <c r="J5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>55</v>
+      <c r="K5" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
         <v>46</v>
@@ -2047,16 +2039,16 @@
       <c r="J6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>55</v>
+      <c r="K6" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>60</v>
+      <c r="A7" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2072,7 +2064,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K3" sqref="K3:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,11 +2168,11 @@
       <c r="J3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>55</v>
+      <c r="K3" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,11 +2206,11 @@
       <c r="J4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>55</v>
+      <c r="K4" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,11 +2244,11 @@
       <c r="J5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>55</v>
+      <c r="K5" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2290,16 +2282,16 @@
       <c r="J6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>55</v>
+      <c r="K6" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>62</v>
+      <c r="A7" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2315,7 +2307,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K3" sqref="K3:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,11 +2411,11 @@
       <c r="J3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>55</v>
+      <c r="K3" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2457,11 +2449,11 @@
       <c r="J4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>55</v>
+      <c r="K4" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -2495,16 +2487,16 @@
       <c r="J5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>55</v>
+      <c r="K5" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>63</v>
+      <c r="A6" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2519,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C194EB-3FD8-4CBB-B44E-77A128B28D9F}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2546,191 +2538,191 @@
       <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="B4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="D4" s="15">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="14">
         <v>1</v>
       </c>
-      <c r="D3" s="16">
-        <v>3</v>
-      </c>
-      <c r="E3" s="16">
-        <v>3</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="D5" s="15">
+        <v>3</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15">
+        <v>3</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="E8" s="16">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="16">
-        <v>3</v>
-      </c>
-      <c r="E4" s="16">
-        <v>3</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16">
-        <v>3</v>
-      </c>
-      <c r="E5" s="16">
-        <v>3</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16">
-        <v>3</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
-        <v>3</v>
-      </c>
-      <c r="E7" s="16">
-        <v>3</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="16">
         <v>2</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="F9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="22"/>
+      <c r="E19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
